--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\data_compare_llm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B86675-7297-45FE-B34D-12461025682F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6963121-7F98-499E-AFAF-296BD5BE4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C9E7E1D-DF14-4B34-AD38-EF3E38BDC936}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +840,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>20</v>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\data_compare_llm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6963121-7F98-499E-AFAF-296BD5BE4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C9E7E1D-DF14-4B34-AD38-EF3E38BDC936}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -145,13 +145,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,17 +177,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -489,19 +589,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076E8F7B-1C4F-49B3-B3DF-97095429F55A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076E8F7B-1C4F-49B3-B3DF-97095429F55A}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="14.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -631,7 +731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14.4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -690,13 +790,13 @@
         <v>56.95</v>
       </c>
       <c r="T3">
-        <v>1889.5</v>
+        <v>1889.50</v>
       </c>
       <c r="U3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -761,7 +861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -817,7 +917,7 @@
         <v>35</v>
       </c>
       <c r="S5">
-        <v>42.3</v>
+        <v>42.30</v>
       </c>
       <c r="T5">
         <v>1840.75</v>
@@ -826,7 +926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.4">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -837,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -882,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="S6">
-        <v>70.7</v>
+        <v>70.70</v>
       </c>
       <c r="T6">
         <v>151.65</v>
